--- a/wk/DB設計/001_テーブル定義/テーブル定義‗申請.xlsx
+++ b/wk/DB設計/001_テーブル定義/テーブル定義‗申請.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\010_仕事\900_etc\010_自社プロジェクト\001_勤怠管理システム\DB設計\001_テーブル定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\attend\Attend-Doc\wk\DB設計\001_テーブル定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7793CBD0-EF07-4806-99A9-BC91AA355192}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -250,9 +249,6 @@
     <t>申請日</t>
   </si>
   <si>
-    <t>承認日</t>
-  </si>
-  <si>
     <t>登録日</t>
   </si>
   <si>
@@ -271,6 +267,13 @@
     <t>高橋</t>
     <rPh sb="0" eb="2">
       <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -278,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,###"/>
   </numFmts>
@@ -404,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -429,22 +432,28 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,6 +865,9 @@
           <cell r="E26">
             <v>3</v>
           </cell>
+          <cell r="F26" t="str">
+            <v>コード定義の「申請ID」参照</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
@@ -1034,6 +1046,113 @@
           </cell>
           <cell r="F39" t="str">
             <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>文書区分</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>DocKbn</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E40">
+            <v>2</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>コード定義の「文書区分」参照</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>文書説明</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>DocDescription</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E41">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>承認ステータス</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>ApprovalStatus</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E42">
+            <v>1</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>コード定義の「承認ステータス」参照</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>承認者ID</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>ApprovalUser</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E43">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>承認日</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>ApprovalDate</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>DATETIME</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>承認ルート</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>ApprovalRoute</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E45">
+            <v>1</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>コード定義の「承認ルート」参照</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>承認順位</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>ApprovalOrder</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E46">
+            <v>1</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>コード定義の「承認順位」参照</v>
           </cell>
         </row>
       </sheetData>
@@ -1305,206 +1424,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.350000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="17.45" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.6875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" style="1" customWidth="1"/>
     <col min="9" max="20" width="4.75" style="1" customWidth="1"/>
-    <col min="21" max="22" width="30.5625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="30.625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.350000000000001" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:22" ht="17.45" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="18">
+      <c r="J1" s="22"/>
+      <c r="K1" s="20">
         <v>43200</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="10" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
     </row>
-    <row r="2" spans="1:22" ht="17.350000000000001" customHeight="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:22" ht="17.45" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="20" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
     </row>
-    <row r="3" spans="1:22" ht="17.350000000000001" customHeight="1">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:22" ht="17.45" customHeight="1">
+      <c r="A3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="28">
+      <c r="J3" s="22"/>
+      <c r="K3" s="30">
         <f>COUNTA(B7:C17)</f>
         <v>10</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
     </row>
-    <row r="5" spans="1:22" ht="17.350000000000001" customHeight="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:22" ht="17.45" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.350000000000001" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:22" ht="17.45" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="5">
         <v>1</v>
       </c>
@@ -1535,10 +1654,10 @@
       <c r="T6" s="5">
         <v>10</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
     </row>
-    <row r="7" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="7" spans="1:22" ht="17.45" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1547,16 +1666,16 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B7,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B7,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>AppNo</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B7,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B7,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G7" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B7,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B7,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>10</v>
       </c>
       <c r="H7" s="2"/>
@@ -1573,12 +1692,12 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B7,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B7,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="8" spans="1:22" ht="17.45" customHeight="1">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1587,16 +1706,16 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B8,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B8,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>SyainNo</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B8,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B8,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G8" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B8,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B8,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>10</v>
       </c>
       <c r="H8" s="2"/>
@@ -1613,12 +1732,12 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B8,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B8,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>社員に付与される一意の番号</v>
       </c>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="9" spans="1:22" ht="17.25" customHeight="1">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -1627,16 +1746,16 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B9,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B9,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>AppId</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B9,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B9,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G9" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B9,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B9,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>3</v>
       </c>
       <c r="H9" s="2"/>
@@ -1652,13 +1771,13 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B9,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>0</v>
+      <c r="U9" s="9" t="str">
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B9,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>コード定義の「申請ID」参照</v>
       </c>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="10" spans="1:22" ht="17.45" customHeight="1">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -1667,16 +1786,16 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B10,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B10,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>AppDate</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B10,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B10,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>DATETIME</v>
       </c>
       <c r="G10" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B10,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B10,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="H10" s="2"/>
@@ -1693,70 +1812,70 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B10,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B10,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="17.350000000000001" customHeight="1">
-      <c r="A11" s="7">
+    <row r="11" spans="1:22" ht="17.45" customHeight="1">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B11,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>ApprovalDate</v>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B11,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>ApprovalStatus</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B11,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>DATETIME</v>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B11,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>VARCHAR</v>
       </c>
       <c r="G11" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B11,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B11,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="3"/>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B11,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="9" t="str">
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B11,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>コード定義の「承認ステータス」参照</v>
+      </c>
+      <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="12" spans="1:22" ht="17.45" customHeight="1">
       <c r="A12" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B12,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B12,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>EntryDate</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B12,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B12,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>DATETIME</v>
       </c>
       <c r="G12" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B12,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B12,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
@@ -1773,30 +1892,30 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B12,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B12,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="13" spans="1:22" ht="17.45" customHeight="1">
       <c r="A13" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B13,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B13,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>EntryUser</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B13,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B13,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G13" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B13,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B13,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>10</v>
       </c>
       <c r="H13" s="2"/>
@@ -1813,30 +1932,30 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B13,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B13,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="14" spans="1:22" ht="17.45" customHeight="1">
       <c r="A14" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B14,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B14,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>UpdateDate</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B14,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B14,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>DATETIME</v>
       </c>
       <c r="G14" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B14,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B14,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
@@ -1853,30 +1972,30 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B14,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B14,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="15" spans="1:22" ht="17.45" customHeight="1">
       <c r="A15" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B15,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B15,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>UpdateUser</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B15,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B15,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G15" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B15,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B15,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>10</v>
       </c>
       <c r="H15" s="2"/>
@@ -1893,30 +2012,30 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B15,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B15,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="16" spans="1:22" ht="17.45" customHeight="1">
       <c r="A16" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B16,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B16,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>DelFlg</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B16,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B16,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G16" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B16,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B16,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>1</v>
       </c>
       <c r="H16" s="2"/>
@@ -1933,26 +2052,26 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B16,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B16,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0：未削除（初期値） ／ 1：削除</v>
       </c>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="17" spans="1:22" ht="17.45" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B17,[1]カラムリスト!$B$4:$B$1000,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B17,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B17,[1]カラムリスト!$B$4:$B$1000,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B17,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="G17" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B17,[1]カラムリスト!$B$4:$B$1000,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B17,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="H17" s="2"/>
@@ -1969,7 +2088,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$1000,MATCH(B17,[1]カラムリスト!$B$4:$B$1000,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B17,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v/>
       </c>
       <c r="V17" s="3"/>
@@ -1988,12 +2107,7 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="K5:T5"/>
     <mergeCell ref="S1:V3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -2009,15 +2123,6 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
@@ -2025,12 +2130,26 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wk/DB設計/001_テーブル定義/テーブル定義‗申請.xlsx
+++ b/wk/DB設計/001_テーブル定義/テーブル定義‗申請.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -222,10 +223,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MST or TRN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>申請</t>
     <rPh sb="0" eb="2">
       <t>シンセイ</t>
@@ -233,10 +230,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SHINSEI</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>申請番号</t>
   </si>
   <si>
@@ -274,6 +267,59 @@
     <t>承認ステータス</t>
     <rPh sb="0" eb="2">
       <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>申請文書のID</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TRN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧申請番号</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再申請した場合に、元の申請番号を保持する</t>
+    <rPh sb="0" eb="3">
+      <t>サイシンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -407,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,6 +484,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -451,19 +503,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,15 +516,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +528,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,6 +568,144 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="組織マスタのイメージ"/>
+      <sheetName val="申請系テーブルのイメージ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>勤務時間</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>ATTENDANCE</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>勤務時間設定</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>ATTENDANCE_MST</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>社員マスタ</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>EMPLOYEE_MST</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>祝日管理</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>HOLIDAY_MST</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>申請</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>APPLICATION</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>申請マスタ</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>APPLICATION_MST</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>締め管理</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>CLOSE</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>有給管理</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>PAID_HOLIDAY</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>申請詳細</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>APPLICATION_DETAIL</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>休暇取得申請</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>HOLIDAY_APPLICATION</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>通勤手当申請</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>COMMUTING_APPLICATION</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>経費申請</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>EXPENSE_APPLICATION</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>書籍購入支援申請</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>BOOK_PURCHASE_APPLICATION</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>休日出勤申請</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>HOLIDAY_WORK_APPLICATION</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>組織マスタ</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>SYSTEM_MST</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="カラムリスト"/>
       <sheetName val="Sheet2"/>
     </sheetNames>
@@ -543,7 +733,7 @@
             <v>社員番号</v>
           </cell>
           <cell r="C4" t="str">
-            <v>SyainNo</v>
+            <v>EmployeeNo</v>
           </cell>
           <cell r="D4" t="str">
             <v>VARCHAR</v>
@@ -577,7 +767,7 @@
             <v>入社年月日</v>
           </cell>
           <cell r="C6" t="str">
-            <v>NyusyaDate</v>
+            <v>JoinDate</v>
           </cell>
           <cell r="D6" t="str">
             <v>VARCHAR</v>
@@ -591,7 +781,7 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>退職年月日</v>
+            <v>退社年月日</v>
           </cell>
           <cell r="C7" t="str">
             <v>RetireDate</v>
@@ -767,10 +957,10 @@
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>休暇/休出理由</v>
+            <v>作業内容</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Reason</v>
+            <v>WorkContents</v>
           </cell>
           <cell r="D20" t="str">
             <v>VARCHAR</v>
@@ -781,378 +971,1113 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>作業内容</v>
+            <v>申請番号</v>
           </cell>
           <cell r="C21" t="str">
-            <v>WorkContents</v>
+            <v>AppNo</v>
           </cell>
           <cell r="D21" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E21">
-            <v>300</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>申請番号</v>
+            <v>備考</v>
           </cell>
           <cell r="C22" t="str">
-            <v>AppNo</v>
+            <v>Remark</v>
           </cell>
           <cell r="D22" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E22">
-            <v>10</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>備考</v>
+            <v>確認依頼フラグ</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Remark</v>
+            <v>ConfiirmRequestFlg</v>
           </cell>
           <cell r="D23" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E23">
-            <v>1000</v>
+            <v>1</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>0：問題なし（初期値） ／ 1：確認要</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>確認依頼フラグ</v>
+            <v>確認コメント</v>
           </cell>
           <cell r="C24" t="str">
-            <v>ConfiirmRequestFlg</v>
+            <v>ConfiirmComment</v>
           </cell>
           <cell r="D24" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E24">
-            <v>1</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>0：問題なし（初期値） ／ 1：確認要</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>確認コメント</v>
+            <v>申請ID</v>
           </cell>
           <cell r="C25" t="str">
-            <v>ConfiirmComment</v>
+            <v>AppId</v>
           </cell>
           <cell r="D25" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E25">
-            <v>1000</v>
+            <v>3</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>コード定義の「申請ID」参照</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>申請ID</v>
+            <v>申請名</v>
           </cell>
           <cell r="C26" t="str">
-            <v>AppId</v>
+            <v>AppName</v>
           </cell>
           <cell r="D26" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E26">
-            <v>3</v>
-          </cell>
-          <cell r="F26" t="str">
-            <v>コード定義の「申請ID」参照</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>申請名</v>
+            <v>申請日</v>
           </cell>
           <cell r="C27" t="str">
-            <v>AppName</v>
+            <v>AppDate</v>
           </cell>
           <cell r="D27" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E27">
-            <v>100</v>
+            <v>8</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>フォーマット：YYYYMMDD</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>申請日</v>
+            <v>承認日</v>
           </cell>
           <cell r="C28" t="str">
-            <v>AppDate</v>
+            <v>ApprovalDate</v>
           </cell>
           <cell r="D28" t="str">
-            <v>DATETIME</v>
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E28">
+            <v>8</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>フォーマット：YYYYMMDD</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>承認日</v>
+            <v>締めステータス</v>
           </cell>
           <cell r="C29" t="str">
-            <v>ApprovalDate</v>
+            <v>DeadlineStatus</v>
           </cell>
           <cell r="D29" t="str">
-            <v>DATETIME</v>
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E29">
+            <v>1</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>0：締め前（初期値） ／ 1：締め済み</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>締めステータス</v>
+            <v>有給日数</v>
           </cell>
           <cell r="C30" t="str">
-            <v>DeadlineStatus</v>
+            <v>Paid</v>
           </cell>
           <cell r="D30" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E30">
-            <v>1</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>0：締め前（初期値） ／ 1：締め済み</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>有給日数</v>
+            <v>祝日名称</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Paid</v>
+            <v>HolidayName</v>
           </cell>
           <cell r="D31" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E31">
-            <v>3</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>祝日名称</v>
+            <v>登録日</v>
           </cell>
           <cell r="C32" t="str">
-            <v>HolidayName</v>
+            <v>EntryDate</v>
           </cell>
           <cell r="D32" t="str">
-            <v>VARCHAR</v>
-          </cell>
-          <cell r="E32">
-            <v>100</v>
+            <v>DATETIME</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>登録日</v>
+            <v>登録者ID</v>
           </cell>
           <cell r="C33" t="str">
-            <v>EntryDate</v>
+            <v>EntryUser</v>
           </cell>
           <cell r="D33" t="str">
-            <v>DATETIME</v>
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E33">
+            <v>10</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>登録者ID</v>
+            <v>更新日</v>
           </cell>
           <cell r="C34" t="str">
-            <v>EntryUser</v>
+            <v>UpdateDate</v>
           </cell>
           <cell r="D34" t="str">
-            <v>VARCHAR</v>
-          </cell>
-          <cell r="E34">
-            <v>10</v>
+            <v>DATETIME</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>更新日</v>
+            <v>更新者ID</v>
           </cell>
           <cell r="C35" t="str">
-            <v>UpdateDate</v>
+            <v>UpdateUser</v>
           </cell>
           <cell r="D35" t="str">
-            <v>DATETIME</v>
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E35">
+            <v>10</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>更新者ID</v>
+            <v>削除フラグ</v>
           </cell>
           <cell r="C36" t="str">
-            <v>UpdateUser</v>
+            <v>DelFlg</v>
           </cell>
           <cell r="D36" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E36">
-            <v>10</v>
+            <v>1</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>0：未削除（初期値） ／ 1：削除</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>削除フラグ</v>
+            <v>氏名かな</v>
           </cell>
           <cell r="C37" t="str">
-            <v>DelFlg</v>
+            <v>NameKana</v>
           </cell>
           <cell r="D37" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E37">
-            <v>1</v>
-          </cell>
-          <cell r="F37" t="str">
-            <v>0：未削除（初期値） ／ 1：削除</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>氏名かな</v>
+            <v>年月日</v>
           </cell>
           <cell r="C38" t="str">
-            <v>NameKana</v>
+            <v>Ymd</v>
           </cell>
           <cell r="D38" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E38">
-            <v>100</v>
+            <v>8</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>フォーマット：YYYYMMDD</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>年月日</v>
+            <v>文書区分</v>
           </cell>
           <cell r="C39" t="str">
-            <v>Ymd</v>
+            <v>DocKbn</v>
           </cell>
           <cell r="D39" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E39">
-            <v>8</v>
+            <v>2</v>
           </cell>
           <cell r="F39" t="str">
-            <v>フォーマット：YYYYMMDD</v>
+            <v>コード定義の「文書区分」参照</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>文書区分</v>
+            <v>文書説明</v>
           </cell>
           <cell r="C40" t="str">
-            <v>DocKbn</v>
+            <v>DocDescription</v>
           </cell>
           <cell r="D40" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E40">
-            <v>2</v>
-          </cell>
-          <cell r="F40" t="str">
-            <v>コード定義の「文書区分」参照</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>文書説明</v>
+            <v>承認ステータス</v>
           </cell>
           <cell r="C41" t="str">
-            <v>DocDescription</v>
+            <v>ApprovalStatus</v>
           </cell>
           <cell r="D41" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E41">
-            <v>100</v>
+            <v>1</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>コード定義の「承認ステータス」参照</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>承認ステータス</v>
+            <v>承認者ID</v>
           </cell>
           <cell r="C42" t="str">
-            <v>ApprovalStatus</v>
+            <v>ApprovalUser</v>
           </cell>
           <cell r="D42" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E42">
-            <v>1</v>
-          </cell>
-          <cell r="F42" t="str">
-            <v>コード定義の「承認ステータス」参照</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>承認者ID</v>
+            <v>承認ルート</v>
           </cell>
           <cell r="C43" t="str">
-            <v>ApprovalUser</v>
+            <v>ApprovalRoute</v>
           </cell>
           <cell r="D43" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E43">
-            <v>10</v>
+            <v>1</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>コード定義の「承認ルート」参照</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>承認日</v>
+            <v>承認順位</v>
           </cell>
           <cell r="C44" t="str">
-            <v>ApprovalDate</v>
+            <v>ApprovalOrder</v>
           </cell>
           <cell r="D44" t="str">
-            <v>DATETIME</v>
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E44">
+            <v>1</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>コード定義の「承認順位」参照</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>承認ルート</v>
+            <v>休暇取得日（FROM）</v>
           </cell>
           <cell r="C45" t="str">
-            <v>ApprovalRoute</v>
+            <v>HolidayFrom</v>
           </cell>
           <cell r="D45" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E45">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="F45" t="str">
-            <v>コード定義の「承認ルート」参照</v>
+            <v>フォーマット：YYYYMMDD</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>承認順位</v>
+            <v>休暇取得日（TO）</v>
           </cell>
           <cell r="C46" t="str">
-            <v>ApprovalOrder</v>
+            <v>HolidayTo</v>
           </cell>
           <cell r="D46" t="str">
             <v>VARCHAR</v>
           </cell>
           <cell r="E46">
+            <v>8</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>休暇区分</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>HolidayKbn</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E47">
             <v>1</v>
           </cell>
-          <cell r="F46" t="str">
-            <v>コード定義の「承認順位」参照</v>
+          <cell r="F47" t="str">
+            <v>コード定義の「休暇区分」参照</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>休暇日数</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>HolidayCount</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E48">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>対象年月</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>CommutingYｍ</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E49">
+            <v>6</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>フォーマット：YYYYMM</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>交通機関種類</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>TransKbn</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E50">
+            <v>2</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>コード定義の「交通機関種類」参照</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>購入区分</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>BuyKbn</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E51">
+            <v>1</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>コード定義の「購入区分」参照</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>通勤区間（FROM）</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>CommutingFrom</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E52">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>通勤区間（TO）</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>CommutingTo</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E53">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>通勤費（1ヶ月）</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>CommutingFeeMonth</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E54">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>通勤費（1日）</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>CommutingFeeDay</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E55">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>通勤日数</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>CommutingCount</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E56">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>経費区分</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>ExpenseKbn</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E57">
+            <v>2</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>コード定義の「経費区分」参照</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>経費内容</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>ExpenseContents</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E58">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>経費</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>ExpenseAmount</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E59">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>書籍名</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>BookName</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E60">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>精算方法</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>PayoffKbn</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E61">
+            <v>1</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>コード定義の「精算方法」参照</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>承認区分</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>ApprovalKbn</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E62">
+            <v>1</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>コード定義の「承認区分」参照</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>購入理由</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>BuyReason</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E63">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>特記事項</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Notices</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E64">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>購入年月日</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>BuyDay</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E65">
+            <v>8</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>休日出勤理由</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>HolidayWorkReason</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E66">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>作業日</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>WorkDay</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E67">
+            <v>8</v>
+          </cell>
+          <cell r="F67" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>振替休日取得区分</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>TransHolidayKbn</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E68">
+            <v>1</v>
+          </cell>
+          <cell r="F68" t="str">
+            <v>コード定義の「振替休日取得区分」参照</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>振替休日</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>TransHoliday</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E69">
+            <v>8</v>
+          </cell>
+          <cell r="F69" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>振替休日なし理由</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>NoTransReason</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E70">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>経費発生年月日</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>ExpenseDay</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E71">
+            <v>8</v>
+          </cell>
+          <cell r="F71" t="str">
+            <v>フォーマット：YYYYMMDD</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>購入金額</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>BuyAmount</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E72">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>明細No.</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>LineNo</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>NUMBER</v>
+          </cell>
+          <cell r="E73">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>性別</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Gender</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E74">
+            <v>1</v>
+          </cell>
+          <cell r="F74" t="str">
+            <v>コード定義の「性別」参照</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>部署</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Department</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E75">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>グループ</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Group</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E76">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>役職</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Position</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E77">
+            <v>2</v>
+          </cell>
+          <cell r="F77" t="str">
+            <v>コード定義の「役職」参照</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>承認権限</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>ApprovalAuth</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E78">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>自宅郵便番号１</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>HomeZip1</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E79">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>自宅郵便番号２</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>HomeZip2</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E80">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>自宅住所１</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>HomeAddress1</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E81">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>自宅住所２</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>HomeAddress2</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E82">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>自宅住所３</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>HomeAddress3</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E83">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>自宅住所４</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>HomeAddress4</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E84">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>自宅電話番号１</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>HomePhoneNo1</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E85">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>自宅電話番号２</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>HomePhoneNo2</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E86">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>自宅電話番号３</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>HomePhoneNo3</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E87">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>携帯電話番号１</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>MobilePhoneNo1</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E88">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>携帯電話番号２</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>MobilePhoneNo2</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E89">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>携帯電話番号３</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>MobilePhoneNo3</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E90">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>組織番号</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>SystemNo</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E91">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>組織名</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>SystemName</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E92">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>上位組織番号</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>UpperSystemNo</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E93">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>旧申請番号</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>OldAppNo</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="E94">
+            <v>10</v>
           </cell>
         </row>
       </sheetData>
@@ -1426,10 +2351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45" customHeight="1"/>
@@ -1447,183 +2372,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17.45" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="22" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="20">
+      <c r="J1" s="18"/>
+      <c r="K1" s="31">
         <v>43200</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="16" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="17.45" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="22" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
     </row>
     <row r="3" spans="1:22" ht="17.45" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="26" t="str">
+        <f>IFERROR(INDEX([1]Sheet1!$B$6:$E$50,(MATCH(F3,[1]Sheet1!$B$6:$B$50,0)),3),"")</f>
+        <v>APPLICATION</v>
+      </c>
+      <c r="D3" s="27"/>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="22" t="s">
+      <c r="F3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="30">
-        <f>COUNTA(B7:C17)</f>
-        <v>10</v>
-      </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="22" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="24">
+        <f>COUNTA(B7:C18)</f>
+        <v>11</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
     </row>
     <row r="5" spans="1:22" ht="17.45" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="24" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="17.45" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="5">
         <v>1</v>
       </c>
@@ -1654,33 +2580,37 @@
       <c r="T6" s="5">
         <v>10</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" ht="17.45" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B7,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+      <c r="B7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B7,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>AppNo</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B7,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B7,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G7" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B7,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B7,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>10</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1692,7 +2622,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B7,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B7,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V7" s="3"/>
@@ -1701,21 +2631,21 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B8,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>SyainNo</v>
-      </c>
-      <c r="E8" s="15"/>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B8,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>EmployeeNo</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B8,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B8,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G8" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B8,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B8,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>10</v>
       </c>
       <c r="H8" s="2"/>
@@ -1732,7 +2662,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B8,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B8,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>社員に付与される一意の番号</v>
       </c>
       <c r="V8" s="3"/>
@@ -1741,21 +2671,21 @@
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B9,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B9,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>AppId</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B9,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B9,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G9" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B9,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B9,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>3</v>
       </c>
       <c r="H9" s="2"/>
@@ -1772,31 +2702,33 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B9,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B9,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>コード定義の「申請ID」参照</v>
       </c>
-      <c r="V9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="17.45" customHeight="1">
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B10,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+      <c r="B10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B10,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>AppDate</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B10,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>DATETIME</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B10,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>VARCHAR</v>
       </c>
       <c r="G10" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B10,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>0</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B10,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>8</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1811,9 +2743,9 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B10,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>0</v>
+      <c r="U10" s="9" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B10,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>フォーマット：YYYYMMDD</v>
       </c>
       <c r="V10" s="3"/>
     </row>
@@ -1821,21 +2753,21 @@
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B11,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B11,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>ApprovalStatus</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B11,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B11,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G11" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B11,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B11,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>1</v>
       </c>
       <c r="H11" s="10"/>
@@ -1852,71 +2784,73 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B11,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B11,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>コード定義の「承認ステータス」参照</v>
       </c>
       <c r="V11" s="11"/>
     </row>
     <row r="12" spans="1:22" ht="17.45" customHeight="1">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B12,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>EntryDate</v>
-      </c>
-      <c r="E12" s="15"/>
+      <c r="A12" s="12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B12,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>OldAppNo</v>
+      </c>
+      <c r="E12" s="17"/>
       <c r="F12" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B12,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>DATETIME</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B12,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>VARCHAR</v>
       </c>
       <c r="G12" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B12,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B12,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="9">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B12,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B12,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="3"/>
+      <c r="V12" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="17.45" customHeight="1">
       <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B13,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>EntryUser</v>
-      </c>
-      <c r="E13" s="15"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B13,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>EntryDate</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B13,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>VARCHAR</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B13,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>DATETIME</v>
       </c>
       <c r="G13" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B13,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>10</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B13,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>0</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1932,31 +2866,31 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B13,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B13,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="17.45" customHeight="1">
       <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B14,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>UpdateDate</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B14,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>EntryUser</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B14,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>DATETIME</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B14,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>VARCHAR</v>
       </c>
       <c r="G14" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B14,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>0</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B14,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>10</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1972,31 +2906,31 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B14,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B14,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="17.45" customHeight="1">
       <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B15,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>UpdateUser</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B15,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>UpdateDate</v>
+      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B15,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>VARCHAR</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B15,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>DATETIME</v>
       </c>
       <c r="G15" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B15,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>10</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B15,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>0</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2012,31 +2946,31 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="9">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B15,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B15,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>0</v>
       </c>
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="1:22" ht="17.45" customHeight="1">
       <c r="A16" s="7">
-        <v>13</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B16,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>DelFlg</v>
-      </c>
-      <c r="E16" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B16,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>UpdateUser</v>
+      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B16,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B16,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
         <v>VARCHAR</v>
       </c>
       <c r="G16" s="8">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B16,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>1</v>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B16,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>10</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2051,28 +2985,32 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B16,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v>0：未削除（初期値） ／ 1：削除</v>
+      <c r="U16" s="9">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B16,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>0</v>
       </c>
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="1:22" ht="17.45" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B17,[1]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v/>
-      </c>
-      <c r="E17" s="15"/>
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B17,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>DelFlg</v>
+      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B17,[1]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="8" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B17,[1]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v/>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B17,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>VARCHAR</v>
+      </c>
+      <c r="G17" s="8">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B17,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>1</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2088,29 +3026,60 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="9" t="str">
-        <f>IFERROR(INDEX([1]カラムリスト!$B$4:$F$997,MATCH(B17,[1]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[1]カラムリスト!$B$3:$F$3,0)),"")</f>
-        <v/>
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B17,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v>0：未削除（初期値） ／ 1：削除</v>
       </c>
       <c r="V17" s="3"/>
     </row>
+    <row r="18" spans="1:22" ht="17.45" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B18,[2]カラムリスト!$B$4:$B$997,0),MATCH($D$6,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="8" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B18,[2]カラムリスト!$B$4:$B$997,0),MATCH($F$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B18,[2]カラムリスト!$B$4:$B$997,0),MATCH($G$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="9" t="str">
+        <f>IFERROR(INDEX([2]カラムリスト!$B$4:$F$997,MATCH(B18,[2]カラムリスト!$B$4:$B$997,0),MATCH($U$5,[2]カラムリスト!$B$3:$F$3,0)),"")</f>
+        <v/>
+      </c>
+      <c r="V18" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
+  <mergeCells count="57">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:T5"/>
     <mergeCell ref="S1:V3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="Q1:R3"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M2:N2"/>
@@ -2118,38 +3087,45 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
